--- a/biology/Zoologie/Homopode_de_Namibie/Homopode_de_Namibie.xlsx
+++ b/biology/Zoologie/Homopode_de_Namibie/Homopode_de_Namibie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Homopus solus
-Homopus solus, l'Homopode de Namibie, est une espèce de tortues de la famille des Testudinidae[1].
+Homopus solus, l'Homopode de Namibie, est une espèce de tortues de la famille des Testudinidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Namibie[1]. Elle se rencontre dans les environs d'Aus.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Namibie. Elle se rencontre dans les environs d'Aus.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a longtemps été nommée par erreur Homopus bergeri qui est un synonyme de Psammobates tentorius verroxii.
 </t>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Branch, 2007 : A new species of tortoise of the genus Homopus (Chelonia: Testudinidae) from southern Namibia. African Journal of Herpetology, vol. 56, p. 1–21.</t>
         </is>
